--- a/Examples/Diavolo3_Tasks.xlsx
+++ b/Examples/Diavolo3_Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drmik\Documents\Professional-Studies-2\Topics\Client Problems\Example Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s213090\Documents\GameBusinessStudies\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AC3151-95E3-4603-A7DA-4F6B0A5600FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B25B9C8-DF96-4252-9B29-7F8FFF8D0D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9620" yWindow="2740" windowWidth="28800" windowHeight="15470" xr2:uid="{04AC3E2D-6759-42B0-BB9D-DEFE897D259F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04AC3E2D-6759-42B0-BB9D-DEFE897D259F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,18 +575,18 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="2"/>
-    <col min="5" max="5" width="27.81640625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="2"/>
-    <col min="7" max="7" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="2"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -609,7 +609,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -635,7 +635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -713,7 +713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -779,7 +779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -819,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -839,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -859,7 +859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -879,7 +879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -899,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -921,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>44</v>
       </c>
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>43</v>
       </c>
@@ -937,7 +937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -945,7 +945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>46</v>
       </c>
@@ -953,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>45</v>
       </c>
@@ -961,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>47</v>
       </c>
@@ -969,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f>SUM(B2:B19)</f>
         <v>61</v>
@@ -987,7 +987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>

--- a/Examples/Diavolo3_Tasks.xlsx
+++ b/Examples/Diavolo3_Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s213090\Documents\GameBusinessStudies\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bridg\Desktop\Git Uploads\GameBusinessStudies\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B25B9C8-DF96-4252-9B29-7F8FFF8D0D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58277276-7FBE-4ABA-B181-C1FB7E414E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04AC3E2D-6759-42B0-BB9D-DEFE897D259F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04AC3E2D-6759-42B0-BB9D-DEFE897D259F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Character Controller</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Quest Line tests</t>
+  </si>
+  <si>
+    <t>Localisation</t>
   </si>
 </sst>
 </file>
@@ -569,24 +572,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4490073E-5171-45DD-A085-E2900C32F593}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="2"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="2"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="2"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -609,7 +612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -635,7 +638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -661,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -687,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -713,7 +716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -739,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -758,8 +761,14 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -779,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -799,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -819,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -839,7 +848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -859,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -879,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -899,7 +908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -912,8 +921,20 @@
       <c r="D15" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -921,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>44</v>
       </c>
@@ -929,7 +950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>43</v>
       </c>
@@ -937,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -945,7 +966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>46</v>
       </c>
@@ -953,7 +974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>45</v>
       </c>
@@ -961,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>47</v>
       </c>
@@ -969,26 +990,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
         <f>SUM(B2:B19)</f>
-        <v>61</v>
-      </c>
-      <c r="D23" s="2">
-        <f>SUM(D2:D22)</f>
-        <v>130</v>
-      </c>
-      <c r="F23" s="2">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2">
+        <f>SUM(D2:D23)</f>
+        <v>135</v>
+      </c>
+      <c r="F24" s="2">
         <f>SUM(F2:F19)</f>
-        <v>65</v>
-      </c>
-      <c r="H23" s="2">
+        <v>70</v>
+      </c>
+      <c r="H24" s="2">
         <f>SUM(H2:H19)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Examples/Diavolo3_Tasks.xlsx
+++ b/Examples/Diavolo3_Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bridg\Desktop\Git Uploads\GameBusinessStudies\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s213090\Documents\GameBusinessStudies\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58277276-7FBE-4ABA-B181-C1FB7E414E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733A87A2-661A-4B5D-B3D9-930343984C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04AC3E2D-6759-42B0-BB9D-DEFE897D259F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04AC3E2D-6759-42B0-BB9D-DEFE897D259F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Character Controller</t>
   </si>
@@ -209,13 +208,19 @@
   </si>
   <si>
     <t>Localisation</t>
+  </si>
+  <si>
+    <t>Allowed a few days for each department to cater for localisation in the vertical slice.</t>
+  </si>
+  <si>
+    <t>Localisation will become more of a priority when the full game gets closer to release.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +232,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,12 +264,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,24 +585,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4490073E-5171-45DD-A085-E2900C32F593}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="2"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="2"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="2"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -611,8 +624,11 @@
       <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -638,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -664,7 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -690,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -716,7 +732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -742,7 +758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -765,10 +781,10 @@
         <v>57</v>
       </c>
       <c r="H7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -788,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -808,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -828,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -848,7 +864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -868,7 +884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -888,7 +904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -908,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -928,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -942,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>44</v>
       </c>
@@ -950,7 +966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>43</v>
       </c>
@@ -958,7 +974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -966,7 +982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>46</v>
       </c>
@@ -974,7 +990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>45</v>
       </c>
@@ -982,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>47</v>
       </c>
@@ -990,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>57</v>
       </c>
@@ -998,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f>SUM(B2:B19)</f>
         <v>66</v>
@@ -1013,16 +1029,26 @@
       </c>
       <c r="H24" s="2">
         <f>SUM(H2:H19)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="130" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>